--- a/outputs-HGR-r202/g__QALS01_train.xlsx
+++ b/outputs-HGR-r202/g__QALS01_train.xlsx
@@ -534,12 +534,12 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -558,8 +558,10 @@
       <c r="D2" t="n">
         <v>0.01908804061232884</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.9809113037362642</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -582,8 +584,10 @@
       <c r="D3" t="n">
         <v>0.001196060273572846</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.9985004633116701</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -606,8 +610,10 @@
       <c r="D4" t="n">
         <v>0.01437416271140836</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.9856257553840285</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -630,8 +636,10 @@
       <c r="D5" t="n">
         <v>0.0006559360212514303</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.9975608047871548</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -654,8 +662,10 @@
       <c r="D6" t="n">
         <v>8.539140562418703e-06</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5576294177297174</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -678,8 +688,10 @@
       <c r="D7" t="n">
         <v>0.0700005707694894</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.9299984274132909</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -702,8 +714,10 @@
       <c r="D8" t="n">
         <v>0.0003294558458553011</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.999667037919782</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -726,8 +740,10 @@
       <c r="D9" t="n">
         <v>0.1038146749961386</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.8961796972098971</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -750,8 +766,10 @@
       <c r="D10" t="n">
         <v>0.3739693867498408</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.6259758288379206</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -774,12 +792,14 @@
       <c r="D11" t="n">
         <v>0.4405102152362647</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.4564227098516983</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
@@ -798,12 +818,14 @@
       <c r="D12" t="n">
         <v>0.7805216423830542</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.7805216423830542</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
@@ -822,8 +844,10 @@
       <c r="D13" t="n">
         <v>0.007251119611437981</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.9927486252786885</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -846,8 +870,10 @@
       <c r="D14" t="n">
         <v>0.01269304007384337</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.9871616302171197</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -870,8 +896,10 @@
       <c r="D15" t="n">
         <v>0.08022586159708726</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.9197395931228696</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -894,8 +922,10 @@
       <c r="D16" t="n">
         <v>0.315849071119952</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.4226430245933591</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -918,8 +948,10 @@
       <c r="D17" t="n">
         <v>0.4525822948224855</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.5473830721714287</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -942,12 +974,14 @@
       <c r="D18" t="n">
         <v>0.8622523348058092</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.8622523348058092</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
@@ -966,8 +1000,10 @@
       <c r="D19" t="n">
         <v>0.02160467677806686</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.9783831206367434</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -990,8 +1026,10 @@
       <c r="D20" t="n">
         <v>0.02811942178527614</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.9718788648308823</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1014,8 +1052,10 @@
       <c r="D21" t="n">
         <v>0.01090048977073955</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.9843719579990188</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1038,8 +1078,10 @@
       <c r="D22" t="n">
         <v>0.001989731868907533</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.9912765669871129</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1062,8 +1104,10 @@
       <c r="D23" t="n">
         <v>0.08186833653570581</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.9170262275742413</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1086,8 +1130,10 @@
       <c r="D24" t="n">
         <v>0.00396183491071911</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.9814730468025771</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1110,8 +1156,10 @@
       <c r="D25" t="n">
         <v>0.002152077070618263</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.9977898854415829</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1134,8 +1182,10 @@
       <c r="D26" t="n">
         <v>0.237596616441626</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.7623946177365091</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1158,8 +1208,10 @@
       <c r="D27" t="n">
         <v>0.0005330146245912208</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.998909633983311</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1182,8 +1234,10 @@
       <c r="D28" t="n">
         <v>4.949190869027026e-06</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.9997514599886267</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1206,8 +1260,10 @@
       <c r="D29" t="n">
         <v>0.007210053413720879</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.9727531917108029</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1230,8 +1286,10 @@
       <c r="D30" t="n">
         <v>0.001249820355805549</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.981936875826832</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1254,8 +1312,10 @@
       <c r="D31" t="n">
         <v>0.008837858210591744</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.9137049317686355</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1278,8 +1338,10 @@
       <c r="D32" t="n">
         <v>0.05076694779000224</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.9492167106359819</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1302,12 +1364,14 @@
       <c r="D33" t="n">
         <v>0.000297297324543699</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.6368260776867213</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1390,14 @@
       <c r="D34" t="n">
         <v>0.0002414674774305016</v>
       </c>
-      <c r="E34" t="n">
-        <v>0.8892071941322127</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
@@ -1350,8 +1416,10 @@
       <c r="D35" t="n">
         <v>0.0002637749777321477</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.9995384024890627</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1374,12 +1442,14 @@
       <c r="D36" t="n">
         <v>0.4449631985694186</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.5115026662937568</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
@@ -1398,8 +1468,10 @@
       <c r="D37" t="n">
         <v>0.03122476224157409</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.9686973394974377</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1422,8 +1494,10 @@
       <c r="D38" t="n">
         <v>0.005324176376734953</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.9944678678426639</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1446,8 +1520,10 @@
       <c r="D39" t="n">
         <v>0.01908804061232884</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.9809113037362642</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1470,8 +1546,10 @@
       <c r="D40" t="n">
         <v>0.001196060273572846</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.9985004633116701</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1494,8 +1572,10 @@
       <c r="D41" t="n">
         <v>0.01437416271140836</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.9856257553840285</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1518,8 +1598,10 @@
       <c r="D42" t="n">
         <v>0.0006559360212514303</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.9975608047871548</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1542,8 +1624,10 @@
       <c r="D43" t="n">
         <v>8.539140562418703e-06</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.5576294177297174</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1566,8 +1650,10 @@
       <c r="D44" t="n">
         <v>0.0700005707694894</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.9299984274132909</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1590,8 +1676,10 @@
       <c r="D45" t="n">
         <v>0.0003294558458553011</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.999667037919782</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1614,8 +1702,10 @@
       <c r="D46" t="n">
         <v>0.1038146749961386</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.8961796972098971</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1638,8 +1728,10 @@
       <c r="D47" t="n">
         <v>0.3739693867498408</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.6259758288379206</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1662,12 +1754,14 @@
       <c r="D48" t="n">
         <v>0.4405102152362647</v>
       </c>
-      <c r="E48" t="n">
-        <v>0.4564227098516983</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1780,14 @@
       <c r="D49" t="n">
         <v>0.7805216423830542</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.7805216423830542</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp003150575</t>
         </is>
       </c>
     </row>
@@ -1710,8 +1806,10 @@
       <c r="D50" t="n">
         <v>0.007251119611437981</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.9927486252786885</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1761,12 +1859,12 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -1785,8 +1883,10 @@
       <c r="D2" t="n">
         <v>0.005378000763114498</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.9922195250351137</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1809,8 +1909,10 @@
       <c r="D3" t="n">
         <v>0.0007237036356275882</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.9968008176779883</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1833,8 +1935,10 @@
       <c r="D4" t="n">
         <v>0.1469152639422971</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.8472123767754044</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1857,8 +1961,10 @@
       <c r="D5" t="n">
         <v>0.0236506459815303</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.8984443758623541</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1881,8 +1987,10 @@
       <c r="D6" t="n">
         <v>0.001990395513935009</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.9979349245798902</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1905,8 +2013,10 @@
       <c r="D7" t="n">
         <v>0.001444796281961998</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.9984292241847479</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1929,8 +2039,10 @@
       <c r="D8" t="n">
         <v>0.06936282088452742</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.9294931354313345</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1953,8 +2065,10 @@
       <c r="D9" t="n">
         <v>0.002629009177211819</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.9949324549600198</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1977,8 +2091,10 @@
       <c r="D10" t="n">
         <v>0.001434097097104221</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.9837414094064328</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2001,8 +2117,10 @@
       <c r="D11" t="n">
         <v>0.0001978874750345692</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.9990549626058094</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2025,8 +2143,10 @@
       <c r="D12" t="n">
         <v>0.004464766086165272</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.990959280814132</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2049,8 +2169,10 @@
       <c r="D13" t="n">
         <v>0.08434979176508553</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.9024295576364638</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2073,8 +2195,10 @@
       <c r="D14" t="n">
         <v>0.0004619945406359169</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.9016408685846451</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -2097,8 +2221,10 @@
       <c r="D15" t="n">
         <v>0.0002108243677639974</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.9899228796573418</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2121,8 +2247,10 @@
       <c r="D16" t="n">
         <v>0.008146884204952133</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.9665029187558867</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2145,8 +2273,10 @@
       <c r="D17" t="n">
         <v>0.001543001067174148</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.9931487029478727</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2169,8 +2299,10 @@
       <c r="D18" t="n">
         <v>0.003364283920195807</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.9931132396769574</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2193,8 +2325,10 @@
       <c r="D19" t="n">
         <v>0.0005457890544490759</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.996217217066512</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2217,8 +2351,10 @@
       <c r="D20" t="n">
         <v>0.03807161551772879</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.9448850792288533</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2241,8 +2377,10 @@
       <c r="D21" t="n">
         <v>0.006445725762288453</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.9904625895211734</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2265,8 +2403,10 @@
       <c r="D22" t="n">
         <v>1.961864007649085e-05</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.9984559198200098</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2289,8 +2429,10 @@
       <c r="D23" t="n">
         <v>0.002691472712132408</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.9914519622301668</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2313,8 +2455,10 @@
       <c r="D24" t="n">
         <v>0.0005268570805305177</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.9994628570625161</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2337,8 +2481,10 @@
       <c r="D25" t="n">
         <v>2.303471711834474e-05</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.9967334904218627</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2361,8 +2507,10 @@
       <c r="D26" t="n">
         <v>0.001961114396722775</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.9906624129198144</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2385,8 +2533,10 @@
       <c r="D27" t="n">
         <v>0.1207774950679881</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.868443879525348</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2409,8 +2559,10 @@
       <c r="D28" t="n">
         <v>0.007185954163385399</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.9794730610017326</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2433,8 +2585,10 @@
       <c r="D29" t="n">
         <v>0.00953052982275028</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.9758273104222586</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2457,8 +2611,10 @@
       <c r="D30" t="n">
         <v>0.07991856417749447</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.84691146085624</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2481,8 +2637,10 @@
       <c r="D31" t="n">
         <v>0.000135170217869226</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.9952167972543317</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2505,8 +2663,10 @@
       <c r="D32" t="n">
         <v>0.005230444301994343</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.9943312871764438</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2529,8 +2689,10 @@
       <c r="D33" t="n">
         <v>0.1170177774291463</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.8666907369872452</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2553,8 +2715,10 @@
       <c r="D34" t="n">
         <v>0.001988199866346626</v>
       </c>
-      <c r="E34" t="n">
-        <v>0.994276578786509</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2577,8 +2741,10 @@
       <c r="D35" t="n">
         <v>0.001582069012890715</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.9943445246588374</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2601,8 +2767,10 @@
       <c r="D36" t="n">
         <v>0.006428318240693456</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.9922761189845506</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2625,8 +2793,10 @@
       <c r="D37" t="n">
         <v>0.001707327511572818</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.9798882103322845</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2649,8 +2819,10 @@
       <c r="D38" t="n">
         <v>0.00138980498121248</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.9939239041835602</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2673,8 +2845,10 @@
       <c r="D39" t="n">
         <v>0.02275460544943753</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.9642857531949555</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2697,8 +2871,10 @@
       <c r="D40" t="n">
         <v>0.00533001164430847</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.9857131665375999</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2721,8 +2897,10 @@
       <c r="D41" t="n">
         <v>0.01344655589139839</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.9715831636725171</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2745,8 +2923,10 @@
       <c r="D42" t="n">
         <v>0.000966752215732631</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.983282827066943</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2769,8 +2949,10 @@
       <c r="D43" t="n">
         <v>0.03071616767958581</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.9618833084097824</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2793,8 +2975,10 @@
       <c r="D44" t="n">
         <v>0.004976043460382205</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.9927480719143391</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2817,8 +3001,10 @@
       <c r="D45" t="n">
         <v>0.0613244654165241</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.9260637129780264</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2841,8 +3027,10 @@
       <c r="D46" t="n">
         <v>0.01262967020883767</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.9748522860620898</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2865,8 +3053,10 @@
       <c r="D47" t="n">
         <v>0.07197323509645585</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.8273326784213704</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2889,8 +3079,10 @@
       <c r="D48" t="n">
         <v>0.004645226916020688</v>
       </c>
-      <c r="E48" t="n">
-        <v>0.9763600416092012</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2913,8 +3105,10 @@
       <c r="D49" t="n">
         <v>0.01065965127114373</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.9728993168666025</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2937,8 +3131,10 @@
       <c r="D50" t="n">
         <v>0.0475683479188546</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.9418262377130441</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2961,8 +3157,10 @@
       <c r="D51" t="n">
         <v>0.005067107765152535</v>
       </c>
-      <c r="E51" t="n">
-        <v>0.9838609763525908</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2985,8 +3183,10 @@
       <c r="D52" t="n">
         <v>0.009748187896059147</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.9790730257247586</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3009,8 +3209,10 @@
       <c r="D53" t="n">
         <v>0.05369783190676832</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.9363970317365681</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3033,8 +3235,10 @@
       <c r="D54" t="n">
         <v>0.1924185541358815</v>
       </c>
-      <c r="E54" t="n">
-        <v>0.7907429522859994</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3057,8 +3261,10 @@
       <c r="D55" t="n">
         <v>0.01440441397197379</v>
       </c>
-      <c r="E55" t="n">
-        <v>0.9753756038954898</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3081,8 +3287,10 @@
       <c r="D56" t="n">
         <v>0.001434191781644351</v>
       </c>
-      <c r="E56" t="n">
-        <v>0.9934132062473502</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3105,8 +3313,10 @@
       <c r="D57" t="n">
         <v>0.005875018660040667</v>
       </c>
-      <c r="E57" t="n">
-        <v>0.9835405600693877</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3129,8 +3339,10 @@
       <c r="D58" t="n">
         <v>0.2204219057097543</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.7474659233201139</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3153,8 +3365,10 @@
       <c r="D59" t="n">
         <v>0.01015692589545703</v>
       </c>
-      <c r="E59" t="n">
-        <v>0.9834624660164254</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3177,8 +3391,10 @@
       <c r="D60" t="n">
         <v>0.04630415743822697</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.932422926512477</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3201,8 +3417,10 @@
       <c r="D61" t="n">
         <v>0.1297037651533633</v>
       </c>
-      <c r="E61" t="n">
-        <v>0.8677569498105527</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3225,8 +3443,10 @@
       <c r="D62" t="n">
         <v>7.889112187767958e-06</v>
       </c>
-      <c r="E62" t="n">
-        <v>0.9976360569038439</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3249,8 +3469,10 @@
       <c r="D63" t="n">
         <v>0.02065585434164194</v>
       </c>
-      <c r="E63" t="n">
-        <v>0.9584171781017489</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3273,8 +3495,10 @@
       <c r="D64" t="n">
         <v>0.04434643880009938</v>
       </c>
-      <c r="E64" t="n">
-        <v>0.9483349608290849</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3297,8 +3521,10 @@
       <c r="D65" t="n">
         <v>0.002105892494847343</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.9956570324739042</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3321,8 +3547,10 @@
       <c r="D66" t="n">
         <v>0.004560331321311373</v>
       </c>
-      <c r="E66" t="n">
-        <v>0.946137679053485</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3345,8 +3573,10 @@
       <c r="D67" t="n">
         <v>6.737490510898344e-06</v>
       </c>
-      <c r="E67" t="n">
-        <v>0.9958168929665793</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3369,8 +3599,10 @@
       <c r="D68" t="n">
         <v>0.001769322616513353</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.9941431869128186</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3393,8 +3625,10 @@
       <c r="D69" t="n">
         <v>0.0182924686790487</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.952815607029409</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3417,8 +3651,10 @@
       <c r="D70" t="n">
         <v>0.0008112096285472569</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.9932489893715299</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3441,8 +3677,10 @@
       <c r="D71" t="n">
         <v>3.234461695349284e-10</v>
       </c>
-      <c r="E71" t="n">
-        <v>0.982021791858199</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3465,8 +3703,10 @@
       <c r="D72" t="n">
         <v>0.3241512246849094</v>
       </c>
-      <c r="E72" t="n">
-        <v>0.6539988184386332</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3489,8 +3729,10 @@
       <c r="D73" t="n">
         <v>7.751762066356595e-05</v>
       </c>
-      <c r="E73" t="n">
-        <v>0.9977099352618409</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3513,8 +3755,10 @@
       <c r="D74" t="n">
         <v>0.01109491965379936</v>
       </c>
-      <c r="E74" t="n">
-        <v>0.9859116396607359</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3537,8 +3781,10 @@
       <c r="D75" t="n">
         <v>0.0004032954778693868</v>
       </c>
-      <c r="E75" t="n">
-        <v>0.9926349368896502</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3561,8 +3807,10 @@
       <c r="D76" t="n">
         <v>0.01365852249654833</v>
       </c>
-      <c r="E76" t="n">
-        <v>0.976813041266878</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3585,8 +3833,10 @@
       <c r="D77" t="n">
         <v>0.0001958299214735952</v>
       </c>
-      <c r="E77" t="n">
-        <v>0.9981159015629223</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3609,8 +3859,10 @@
       <c r="D78" t="n">
         <v>0.002344326821819068</v>
       </c>
-      <c r="E78" t="n">
-        <v>0.9926319433028109</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3633,8 +3885,10 @@
       <c r="D79" t="n">
         <v>0.001164652192592527</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.9852109480184414</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3657,8 +3911,10 @@
       <c r="D80" t="n">
         <v>0.001142553490734608</v>
       </c>
-      <c r="E80" t="n">
-        <v>0.9756992002546502</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3681,8 +3937,10 @@
       <c r="D81" t="n">
         <v>0.02265752127607491</v>
       </c>
-      <c r="E81" t="n">
-        <v>0.9313379808048631</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3705,8 +3963,10 @@
       <c r="D82" t="n">
         <v>0.261968382245459</v>
       </c>
-      <c r="E82" t="n">
-        <v>0.6829356933861822</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3729,8 +3989,10 @@
       <c r="D83" t="n">
         <v>0.003028717879877383</v>
       </c>
-      <c r="E83" t="n">
-        <v>0.9931453218136727</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3753,8 +4015,10 @@
       <c r="D84" t="n">
         <v>2.523074037669429e-05</v>
       </c>
-      <c r="E84" t="n">
-        <v>0.9985135158693651</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3777,8 +4041,10 @@
       <c r="D85" t="n">
         <v>0.009485502870591831</v>
       </c>
-      <c r="E85" t="n">
-        <v>0.9635348714006937</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3801,8 +4067,10 @@
       <c r="D86" t="n">
         <v>0.01190527178787014</v>
       </c>
-      <c r="E86" t="n">
-        <v>0.9803894710898454</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3825,8 +4093,10 @@
       <c r="D87" t="n">
         <v>0.06500354631313687</v>
       </c>
-      <c r="E87" t="n">
-        <v>0.9097370190977002</v>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3849,8 +4119,10 @@
       <c r="D88" t="n">
         <v>0.0006966980222644796</v>
       </c>
-      <c r="E88" t="n">
-        <v>0.9950223265540761</v>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3873,8 +4145,10 @@
       <c r="D89" t="n">
         <v>0.000123096283519348</v>
       </c>
-      <c r="E89" t="n">
-        <v>0.9990364143464835</v>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3897,8 +4171,10 @@
       <c r="D90" t="n">
         <v>0.001298939304454504</v>
       </c>
-      <c r="E90" t="n">
-        <v>0.9889729564373853</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3921,8 +4197,10 @@
       <c r="D91" t="n">
         <v>0.002940131283628082</v>
       </c>
-      <c r="E91" t="n">
-        <v>0.9925060670558818</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3945,8 +4223,10 @@
       <c r="D92" t="n">
         <v>0.05207908985679184</v>
       </c>
-      <c r="E92" t="n">
-        <v>0.9218061311696467</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3969,8 +4249,10 @@
       <c r="D93" t="n">
         <v>0.04428623832374255</v>
       </c>
-      <c r="E93" t="n">
-        <v>0.9522145706215023</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3993,8 +4275,10 @@
       <c r="D94" t="n">
         <v>5.06916686922684e-06</v>
       </c>
-      <c r="E94" t="n">
-        <v>0.7955343100827839</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4017,8 +4301,10 @@
       <c r="D95" t="n">
         <v>0.001537659571391638</v>
       </c>
-      <c r="E95" t="n">
-        <v>0.9955146746267972</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4041,8 +4327,10 @@
       <c r="D96" t="n">
         <v>1.558244327333429e-05</v>
       </c>
-      <c r="E96" t="n">
-        <v>0.9975543013541771</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4065,8 +4353,10 @@
       <c r="D97" t="n">
         <v>0.001188437435018976</v>
       </c>
-      <c r="E97" t="n">
-        <v>0.9897826041942108</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4089,8 +4379,10 @@
       <c r="D98" t="n">
         <v>0.01888942706622004</v>
       </c>
-      <c r="E98" t="n">
-        <v>0.9719219323819515</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4113,8 +4405,10 @@
       <c r="D99" t="n">
         <v>2.939368442845253e-06</v>
       </c>
-      <c r="E99" t="n">
-        <v>0.9984994949138802</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4137,8 +4431,10 @@
       <c r="D100" t="n">
         <v>4.892935946936515e-09</v>
       </c>
-      <c r="E100" t="n">
-        <v>0.9995186734904691</v>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4161,8 +4457,10 @@
       <c r="D101" t="n">
         <v>0.06178024690725985</v>
       </c>
-      <c r="E101" t="n">
-        <v>0.9054825088708442</v>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4185,8 +4483,10 @@
       <c r="D102" t="n">
         <v>0.0002274069196120072</v>
       </c>
-      <c r="E102" t="n">
-        <v>0.9984841107791989</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4209,8 +4509,10 @@
       <c r="D103" t="n">
         <v>0.004507001240749296</v>
       </c>
-      <c r="E103" t="n">
-        <v>0.9361631742390276</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4233,8 +4535,10 @@
       <c r="D104" t="n">
         <v>1.551241314683134e-07</v>
       </c>
-      <c r="E104" t="n">
-        <v>0.9966733788229662</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4257,12 +4561,14 @@
       <c r="D105" t="n">
         <v>0.4689952349464204</v>
       </c>
-      <c r="E105" t="n">
-        <v>0.4689952349464204</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
@@ -4281,8 +4587,10 @@
       <c r="D106" t="n">
         <v>8.238352755839599e-05</v>
       </c>
-      <c r="E106" t="n">
-        <v>0.9965495834799281</v>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4305,8 +4613,10 @@
       <c r="D107" t="n">
         <v>5.955657784307555e-06</v>
       </c>
-      <c r="E107" t="n">
-        <v>0.9972052042479278</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4329,8 +4639,10 @@
       <c r="D108" t="n">
         <v>0.03034229729785895</v>
       </c>
-      <c r="E108" t="n">
-        <v>0.9573836398491271</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4353,8 +4665,10 @@
       <c r="D109" t="n">
         <v>7.085889486318602e-08</v>
       </c>
-      <c r="E109" t="n">
-        <v>0.9978877747552392</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4377,8 +4691,10 @@
       <c r="D110" t="n">
         <v>2.452120079037783e-07</v>
       </c>
-      <c r="E110" t="n">
-        <v>0.9974153736564326</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4401,8 +4717,10 @@
       <c r="D111" t="n">
         <v>0.002400279868931987</v>
       </c>
-      <c r="E111" t="n">
-        <v>0.9888449351971293</v>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4425,8 +4743,10 @@
       <c r="D112" t="n">
         <v>0.002163846838521537</v>
       </c>
-      <c r="E112" t="n">
-        <v>0.9924514018945955</v>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4449,8 +4769,10 @@
       <c r="D113" t="n">
         <v>0.003381171700727</v>
       </c>
-      <c r="E113" t="n">
-        <v>0.9922356017004584</v>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4473,8 +4795,10 @@
       <c r="D114" t="n">
         <v>0.0006608194453731739</v>
       </c>
-      <c r="E114" t="n">
-        <v>0.9936099701983999</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4497,8 +4821,10 @@
       <c r="D115" t="n">
         <v>2.682498976570782e-07</v>
       </c>
-      <c r="E115" t="n">
-        <v>0.9979053669059434</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4521,8 +4847,10 @@
       <c r="D116" t="n">
         <v>0.009380798592104497</v>
       </c>
-      <c r="E116" t="n">
-        <v>0.9801221727902628</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4545,8 +4873,10 @@
       <c r="D117" t="n">
         <v>1.251359260131496e-08</v>
       </c>
-      <c r="E117" t="n">
-        <v>0.997671598693895</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4569,8 +4899,10 @@
       <c r="D118" t="n">
         <v>0.0003359054092320795</v>
       </c>
-      <c r="E118" t="n">
-        <v>0.9951449336103326</v>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4593,8 +4925,10 @@
       <c r="D119" t="n">
         <v>0.005378000763114498</v>
       </c>
-      <c r="E119" t="n">
-        <v>0.9922195250351137</v>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4617,8 +4951,10 @@
       <c r="D120" t="n">
         <v>0.0007237036356275882</v>
       </c>
-      <c r="E120" t="n">
-        <v>0.9968008176779883</v>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4641,8 +4977,10 @@
       <c r="D121" t="n">
         <v>0.1469152639422971</v>
       </c>
-      <c r="E121" t="n">
-        <v>0.8472123767754044</v>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4665,8 +5003,10 @@
       <c r="D122" t="n">
         <v>0.0236506459815303</v>
       </c>
-      <c r="E122" t="n">
-        <v>0.8984443758623541</v>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4689,8 +5029,10 @@
       <c r="D123" t="n">
         <v>0.001990395513935009</v>
       </c>
-      <c r="E123" t="n">
-        <v>0.9979349245798902</v>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4713,8 +5055,10 @@
       <c r="D124" t="n">
         <v>0.001444796281961998</v>
       </c>
-      <c r="E124" t="n">
-        <v>0.9984292241847479</v>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4737,8 +5081,10 @@
       <c r="D125" t="n">
         <v>0.06936282088452742</v>
       </c>
-      <c r="E125" t="n">
-        <v>0.9294931354313345</v>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4761,8 +5107,10 @@
       <c r="D126" t="n">
         <v>0.002629009177211819</v>
       </c>
-      <c r="E126" t="n">
-        <v>0.9949324549600198</v>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4785,8 +5133,10 @@
       <c r="D127" t="n">
         <v>0.001434097097104221</v>
       </c>
-      <c r="E127" t="n">
-        <v>0.9837414094064328</v>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4809,8 +5159,10 @@
       <c r="D128" t="n">
         <v>0.0001978874750345692</v>
       </c>
-      <c r="E128" t="n">
-        <v>0.9990549626058094</v>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4833,8 +5185,10 @@
       <c r="D129" t="n">
         <v>0.004464766086165272</v>
       </c>
-      <c r="E129" t="n">
-        <v>0.990959280814132</v>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4857,8 +5211,10 @@
       <c r="D130" t="n">
         <v>0.08434979176508553</v>
       </c>
-      <c r="E130" t="n">
-        <v>0.9024295576364638</v>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4881,8 +5237,10 @@
       <c r="D131" t="n">
         <v>0.0004619945406359169</v>
       </c>
-      <c r="E131" t="n">
-        <v>0.9016408685846451</v>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4905,8 +5263,10 @@
       <c r="D132" t="n">
         <v>0.0002108243677639974</v>
       </c>
-      <c r="E132" t="n">
-        <v>0.9899228796573418</v>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4929,8 +5289,10 @@
       <c r="D133" t="n">
         <v>0.008146884204952133</v>
       </c>
-      <c r="E133" t="n">
-        <v>0.9665029187558867</v>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4953,8 +5315,10 @@
       <c r="D134" t="n">
         <v>0.001543001067174148</v>
       </c>
-      <c r="E134" t="n">
-        <v>0.9931487029478727</v>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4977,8 +5341,10 @@
       <c r="D135" t="n">
         <v>0.003364283920195807</v>
       </c>
-      <c r="E135" t="n">
-        <v>0.9931132396769574</v>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5001,8 +5367,10 @@
       <c r="D136" t="n">
         <v>0.0005457890544490759</v>
       </c>
-      <c r="E136" t="n">
-        <v>0.996217217066512</v>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5025,8 +5393,10 @@
       <c r="D137" t="n">
         <v>0.03807161551772879</v>
       </c>
-      <c r="E137" t="n">
-        <v>0.9448850792288533</v>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -5049,8 +5419,10 @@
       <c r="D138" t="n">
         <v>0.006445725762288453</v>
       </c>
-      <c r="E138" t="n">
-        <v>0.9904625895211734</v>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5073,8 +5445,10 @@
       <c r="D139" t="n">
         <v>1.961864007649085e-05</v>
       </c>
-      <c r="E139" t="n">
-        <v>0.9984559198200098</v>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5097,8 +5471,10 @@
       <c r="D140" t="n">
         <v>0.002691472712132408</v>
       </c>
-      <c r="E140" t="n">
-        <v>0.9914519622301668</v>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5121,8 +5497,10 @@
       <c r="D141" t="n">
         <v>0.0005268570805305177</v>
       </c>
-      <c r="E141" t="n">
-        <v>0.9994628570625161</v>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5145,8 +5523,10 @@
       <c r="D142" t="n">
         <v>2.303471711834474e-05</v>
       </c>
-      <c r="E142" t="n">
-        <v>0.9967334904218627</v>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5169,8 +5549,10 @@
       <c r="D143" t="n">
         <v>0.001961114396722775</v>
       </c>
-      <c r="E143" t="n">
-        <v>0.9906624129198144</v>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5220,12 +5602,12 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>actual</t>
         </is>
       </c>
     </row>
@@ -5244,8 +5626,10 @@
       <c r="D2" t="n">
         <v>0.991718103491157</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.991718103491157</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5268,8 +5652,10 @@
       <c r="D3" t="n">
         <v>0.9984483685974699</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.9984483685974699</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5292,8 +5678,10 @@
       <c r="D4" t="n">
         <v>0.9992151923262056</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.9992151923262056</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5316,8 +5704,10 @@
       <c r="D5" t="n">
         <v>0.9928813229036968</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.9928813229036968</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5340,8 +5730,10 @@
       <c r="D6" t="n">
         <v>0.9945596521009096</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.9945596521009096</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5364,8 +5756,10 @@
       <c r="D7" t="n">
         <v>0.9975107749348648</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.9975107749348648</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5388,8 +5782,10 @@
       <c r="D8" t="n">
         <v>0.996208889065476</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.996208889065476</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5412,8 +5808,10 @@
       <c r="D9" t="n">
         <v>0.9596538686874074</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.9596538686874074</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -5436,8 +5834,10 @@
       <c r="D10" t="n">
         <v>0.9921044306612827</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.9921044306612827</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5460,8 +5860,10 @@
       <c r="D11" t="n">
         <v>0.9886784953347028</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.9886784953347028</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5484,8 +5886,10 @@
       <c r="D12" t="n">
         <v>0.91582658662276</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.91582658662276</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -5508,8 +5912,10 @@
       <c r="D13" t="n">
         <v>0.711758048745656</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.711758048745656</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -5532,8 +5938,10 @@
       <c r="D14" t="n">
         <v>0.8797441265571627</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.8797441265571627</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -5556,8 +5964,10 @@
       <c r="D15" t="n">
         <v>0.8781474415736251</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.8781474415736251</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -5580,8 +5990,10 @@
       <c r="D16" t="n">
         <v>0.9030446382711396</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.9030446382711396</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -5604,8 +6016,10 @@
       <c r="D17" t="n">
         <v>0.8235864303387246</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.8235864303387246</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5628,8 +6042,10 @@
       <c r="D18" t="n">
         <v>0.8677053772101301</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.8677053772101301</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -5652,8 +6068,10 @@
       <c r="D19" t="n">
         <v>0.9899662989673228</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.9899662989673228</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5676,8 +6094,10 @@
       <c r="D20" t="n">
         <v>0.9581740508375305</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.9581740508375305</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5700,8 +6120,10 @@
       <c r="D21" t="n">
         <v>0.9666507978850747</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.9666507978850747</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5724,8 +6146,10 @@
       <c r="D22" t="n">
         <v>0.8735019568631996</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.8735019568631996</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5748,8 +6172,10 @@
       <c r="D23" t="n">
         <v>0.925396211508508</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.925396211508508</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5772,8 +6198,10 @@
       <c r="D24" t="n">
         <v>0.994467128373778</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.994467128373778</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5796,8 +6224,10 @@
       <c r="D25" t="n">
         <v>0.9029227191399419</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.9029227191399419</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5820,8 +6250,10 @@
       <c r="D26" t="n">
         <v>0.9451137298845128</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.9451137298845128</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5844,8 +6276,10 @@
       <c r="D27" t="n">
         <v>0.9748040577972249</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.9748040577972249</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5868,8 +6302,10 @@
       <c r="D28" t="n">
         <v>0.9241573372188547</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.9241573372188547</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5892,8 +6328,10 @@
       <c r="D29" t="n">
         <v>0.9137757831521871</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.9137757831521871</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5916,8 +6354,10 @@
       <c r="D30" t="n">
         <v>0.8710109854188417</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.8710109854188417</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -5940,8 +6380,10 @@
       <c r="D31" t="n">
         <v>0.7265764329685817</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.7265764329685817</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -5964,8 +6406,10 @@
       <c r="D32" t="n">
         <v>0.4550235092725112</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.4550235092725112</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -5988,8 +6432,10 @@
       <c r="D33" t="n">
         <v>0.9128880339716301</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.9128880339716301</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -6012,8 +6458,10 @@
       <c r="D34" t="n">
         <v>0.9909767974610285</v>
       </c>
-      <c r="E34" t="n">
-        <v>0.9909767974610285</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -6036,8 +6484,10 @@
       <c r="D35" t="n">
         <v>0.993154666161628</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.993154666161628</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -6060,8 +6510,10 @@
       <c r="D36" t="n">
         <v>0.9947655404085507</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.9947655404085507</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -6084,8 +6536,10 @@
       <c r="D37" t="n">
         <v>0.9772846893506179</v>
       </c>
-      <c r="E37" t="n">
-        <v>0.9772846893506179</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -6108,8 +6562,10 @@
       <c r="D38" t="n">
         <v>0.9972799994609148</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.9972799994609148</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -6132,8 +6588,10 @@
       <c r="D39" t="n">
         <v>0.9913431402868288</v>
       </c>
-      <c r="E39" t="n">
-        <v>0.9913431402868288</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -6156,8 +6614,10 @@
       <c r="D40" t="n">
         <v>0.9624075163759647</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.9624075163759647</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -6180,8 +6640,10 @@
       <c r="D41" t="n">
         <v>0.9768721619386661</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.9768721619386661</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -6204,8 +6666,10 @@
       <c r="D42" t="n">
         <v>0.9705333341188856</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.9705333341188856</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -6228,8 +6692,10 @@
       <c r="D43" t="n">
         <v>0.8908817775019472</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.8908817775019472</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -6252,8 +6718,10 @@
       <c r="D44" t="n">
         <v>0.9735699552333211</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.9735699552333211</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -6276,8 +6744,10 @@
       <c r="D45" t="n">
         <v>0.9855627594867296</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.9855627594867296</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -6300,12 +6770,14 @@
       <c r="D46" t="n">
         <v>0.2904538695756903</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.6730457162973138</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
@@ -6324,8 +6796,10 @@
       <c r="D47" t="n">
         <v>0.9997080605059752</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.9997080605059752</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -6348,8 +6822,10 @@
       <c r="D48" t="n">
         <v>0.8581197866774605</v>
       </c>
-      <c r="E48" t="n">
-        <v>0.8581197866774605</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -6372,12 +6848,14 @@
       <c r="D49" t="n">
         <v>0.2392881977792952</v>
       </c>
-      <c r="E49" t="n">
-        <v>0.6363591625513368</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900552625</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
@@ -6396,8 +6874,10 @@
       <c r="D50" t="n">
         <v>0.9747629799794286</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.9747629799794286</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -6420,8 +6900,10 @@
       <c r="D51" t="n">
         <v>0.9905203296901717</v>
       </c>
-      <c r="E51" t="n">
-        <v>0.9905203296901717</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -6444,8 +6926,10 @@
       <c r="D52" t="n">
         <v>0.9981578162992778</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.9981578162992778</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -6468,8 +6952,10 @@
       <c r="D53" t="n">
         <v>0.9838058324809417</v>
       </c>
-      <c r="E53" t="n">
-        <v>0.9838058324809417</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -6492,8 +6978,10 @@
       <c r="D54" t="n">
         <v>0.9801060048748277</v>
       </c>
-      <c r="E54" t="n">
-        <v>0.9801060048748277</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -6516,12 +7004,14 @@
       <c r="D55" t="n">
         <v>0.06050993868342562</v>
       </c>
-      <c r="E55" t="n">
-        <v>0.9392028295168938</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp003150575</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
@@ -6540,8 +7030,10 @@
       <c r="D56" t="n">
         <v>0.9962086153176477</v>
       </c>
-      <c r="E56" t="n">
-        <v>0.9962086153176477</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -6564,8 +7056,10 @@
       <c r="D57" t="n">
         <v>0.997952623702736</v>
       </c>
-      <c r="E57" t="n">
-        <v>0.997952623702736</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -6588,8 +7082,10 @@
       <c r="D58" t="n">
         <v>0.9944386178486683</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.9944386178486683</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6612,8 +7108,10 @@
       <c r="D59" t="n">
         <v>0.996055247598741</v>
       </c>
-      <c r="E59" t="n">
-        <v>0.996055247598741</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6636,8 +7134,10 @@
       <c r="D60" t="n">
         <v>0.9981834107041511</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.9981834107041511</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6660,8 +7160,10 @@
       <c r="D61" t="n">
         <v>0.6312530878430977</v>
       </c>
-      <c r="E61" t="n">
-        <v>0.6312530878430977</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6684,8 +7186,10 @@
       <c r="D62" t="n">
         <v>0.9960952281035749</v>
       </c>
-      <c r="E62" t="n">
-        <v>0.9960952281035749</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6708,8 +7212,10 @@
       <c r="D63" t="n">
         <v>0.9534479111943134</v>
       </c>
-      <c r="E63" t="n">
-        <v>0.9534479111943134</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6732,8 +7238,10 @@
       <c r="D64" t="n">
         <v>0.8765324498352446</v>
       </c>
-      <c r="E64" t="n">
-        <v>0.8765324498352446</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6756,8 +7264,10 @@
       <c r="D65" t="n">
         <v>0.6145898814908394</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.6145898814908394</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6780,8 +7290,10 @@
       <c r="D66" t="n">
         <v>0.9715157184754666</v>
       </c>
-      <c r="E66" t="n">
-        <v>0.9715157184754666</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -6804,8 +7316,10 @@
       <c r="D67" t="n">
         <v>0.991718103491157</v>
       </c>
-      <c r="E67" t="n">
-        <v>0.991718103491157</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -6828,8 +7342,10 @@
       <c r="D68" t="n">
         <v>0.9984483685974699</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.9984483685974699</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -6852,8 +7368,10 @@
       <c r="D69" t="n">
         <v>0.9992151923262056</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.9992151923262056</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -6876,8 +7394,10 @@
       <c r="D70" t="n">
         <v>0.9928813229036968</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.9928813229036968</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -6900,8 +7420,10 @@
       <c r="D71" t="n">
         <v>0.9945596521009096</v>
       </c>
-      <c r="E71" t="n">
-        <v>0.9945596521009096</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -6924,8 +7446,10 @@
       <c r="D72" t="n">
         <v>0.9975107749348648</v>
       </c>
-      <c r="E72" t="n">
-        <v>0.9975107749348648</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -6948,8 +7472,10 @@
       <c r="D73" t="n">
         <v>0.996208889065476</v>
       </c>
-      <c r="E73" t="n">
-        <v>0.996208889065476</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -6972,8 +7498,10 @@
       <c r="D74" t="n">
         <v>0.9596538686874074</v>
       </c>
-      <c r="E74" t="n">
-        <v>0.9596538686874074</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -6996,8 +7524,10 @@
       <c r="D75" t="n">
         <v>0.9921044306612827</v>
       </c>
-      <c r="E75" t="n">
-        <v>0.9921044306612827</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -7020,8 +7550,10 @@
       <c r="D76" t="n">
         <v>0.9886784953347028</v>
       </c>
-      <c r="E76" t="n">
-        <v>0.9886784953347028</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -7044,8 +7576,10 @@
       <c r="D77" t="n">
         <v>0.91582658662276</v>
       </c>
-      <c r="E77" t="n">
-        <v>0.91582658662276</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -7068,8 +7602,10 @@
       <c r="D78" t="n">
         <v>0.711758048745656</v>
       </c>
-      <c r="E78" t="n">
-        <v>0.711758048745656</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -7092,8 +7628,10 @@
       <c r="D79" t="n">
         <v>0.8797441265571627</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.8797441265571627</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -7116,8 +7654,10 @@
       <c r="D80" t="n">
         <v>0.8781474415736251</v>
       </c>
-      <c r="E80" t="n">
-        <v>0.8781474415736251</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -7140,8 +7680,10 @@
       <c r="D81" t="n">
         <v>0.9030446382711396</v>
       </c>
-      <c r="E81" t="n">
-        <v>0.9030446382711396</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -7164,8 +7706,10 @@
       <c r="D82" t="n">
         <v>0.8235864303387246</v>
       </c>
-      <c r="E82" t="n">
-        <v>0.8235864303387246</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -7188,8 +7732,10 @@
       <c r="D83" t="n">
         <v>0.8677053772101301</v>
       </c>
-      <c r="E83" t="n">
-        <v>0.8677053772101301</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>s__QALS01 sp900555925</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>

--- a/outputs-HGR-r202/g__QALS01_train.xlsx
+++ b/outputs-HGR-r202/g__QALS01_train.xlsx
@@ -534,12 +534,12 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -558,10 +558,8 @@
       <c r="D2" t="n">
         <v>0.01908804061232884</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.9809113037362642</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -584,10 +582,8 @@
       <c r="D3" t="n">
         <v>0.001196060273572846</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.9985004633116701</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -610,10 +606,8 @@
       <c r="D4" t="n">
         <v>0.01437416271140836</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.9856257553840285</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -636,10 +630,8 @@
       <c r="D5" t="n">
         <v>0.0006559360212514303</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0.9975608047871548</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -662,10 +654,8 @@
       <c r="D6" t="n">
         <v>8.539140562418703e-06</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0.5576294177297174</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -688,10 +678,8 @@
       <c r="D7" t="n">
         <v>0.0700005707694894</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0.9299984274132909</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -714,10 +702,8 @@
       <c r="D8" t="n">
         <v>0.0003294558458553011</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0.999667037919782</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -740,10 +726,8 @@
       <c r="D9" t="n">
         <v>0.1038146749961386</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0.8961796972098971</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -766,10 +750,8 @@
       <c r="D10" t="n">
         <v>0.3739693867498408</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0.6259758288379206</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -792,14 +774,12 @@
       <c r="D11" t="n">
         <v>0.4405102152362647</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0.4564227098516983</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
@@ -818,14 +798,12 @@
       <c r="D12" t="n">
         <v>0.7805216423830542</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0.7805216423830542</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
@@ -844,10 +822,8 @@
       <c r="D13" t="n">
         <v>0.007251119611437981</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0.9927486252786885</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -870,10 +846,8 @@
       <c r="D14" t="n">
         <v>0.01269304007384337</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.9871616302171197</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -896,10 +870,8 @@
       <c r="D15" t="n">
         <v>0.08022586159708726</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.9197395931228696</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -922,10 +894,8 @@
       <c r="D16" t="n">
         <v>0.315849071119952</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0.4226430245933591</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -948,10 +918,8 @@
       <c r="D17" t="n">
         <v>0.4525822948224855</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0.5473830721714287</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -974,14 +942,12 @@
       <c r="D18" t="n">
         <v>0.8622523348058092</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0.8622523348058092</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
@@ -1000,10 +966,8 @@
       <c r="D19" t="n">
         <v>0.02160467677806686</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0.9783831206367434</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1026,10 +990,8 @@
       <c r="D20" t="n">
         <v>0.02811942178527614</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.9718788648308823</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1052,10 +1014,8 @@
       <c r="D21" t="n">
         <v>0.01090048977073955</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.9843719579990188</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1078,10 +1038,8 @@
       <c r="D22" t="n">
         <v>0.001989731868907533</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0.9912765669871129</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1104,10 +1062,8 @@
       <c r="D23" t="n">
         <v>0.08186833653570581</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E23" t="n">
+        <v>0.9170262275742413</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1130,10 +1086,8 @@
       <c r="D24" t="n">
         <v>0.00396183491071911</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E24" t="n">
+        <v>0.9814730468025771</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1156,10 +1110,8 @@
       <c r="D25" t="n">
         <v>0.002152077070618263</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E25" t="n">
+        <v>0.9977898854415829</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1182,10 +1134,8 @@
       <c r="D26" t="n">
         <v>0.237596616441626</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0.7623946177365091</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1208,10 +1158,8 @@
       <c r="D27" t="n">
         <v>0.0005330146245912208</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0.998909633983311</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1234,10 +1182,8 @@
       <c r="D28" t="n">
         <v>4.949190869027026e-06</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0.9997514599886267</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1260,10 +1206,8 @@
       <c r="D29" t="n">
         <v>0.007210053413720879</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0.9727531917108029</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1286,10 +1230,8 @@
       <c r="D30" t="n">
         <v>0.001249820355805549</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0.981936875826832</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1312,10 +1254,8 @@
       <c r="D31" t="n">
         <v>0.008837858210591744</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0.9137049317686355</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1338,10 +1278,8 @@
       <c r="D32" t="n">
         <v>0.05076694779000224</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0.9492167106359819</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1364,14 +1302,12 @@
       <c r="D33" t="n">
         <v>0.000297297324543699</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E33" t="n">
+        <v>0.6368260776867213</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
@@ -1390,14 +1326,12 @@
       <c r="D34" t="n">
         <v>0.0002414674774305016</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0.8892071941322127</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
@@ -1416,10 +1350,8 @@
       <c r="D35" t="n">
         <v>0.0002637749777321477</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0.9995384024890627</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1442,14 +1374,12 @@
       <c r="D36" t="n">
         <v>0.4449631985694186</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0.5115026662937568</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
@@ -1468,10 +1398,8 @@
       <c r="D37" t="n">
         <v>0.03122476224157409</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E37" t="n">
+        <v>0.9686973394974377</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1494,10 +1422,8 @@
       <c r="D38" t="n">
         <v>0.005324176376734953</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E38" t="n">
+        <v>0.9944678678426639</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1520,10 +1446,8 @@
       <c r="D39" t="n">
         <v>0.01908804061232884</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E39" t="n">
+        <v>0.9809113037362642</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1546,10 +1470,8 @@
       <c r="D40" t="n">
         <v>0.001196060273572846</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E40" t="n">
+        <v>0.9985004633116701</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1572,10 +1494,8 @@
       <c r="D41" t="n">
         <v>0.01437416271140836</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E41" t="n">
+        <v>0.9856257553840285</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1598,10 +1518,8 @@
       <c r="D42" t="n">
         <v>0.0006559360212514303</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E42" t="n">
+        <v>0.9975608047871548</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1624,10 +1542,8 @@
       <c r="D43" t="n">
         <v>8.539140562418703e-06</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E43" t="n">
+        <v>0.5576294177297174</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1650,10 +1566,8 @@
       <c r="D44" t="n">
         <v>0.0700005707694894</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E44" t="n">
+        <v>0.9299984274132909</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1676,10 +1590,8 @@
       <c r="D45" t="n">
         <v>0.0003294558458553011</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E45" t="n">
+        <v>0.999667037919782</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1702,10 +1614,8 @@
       <c r="D46" t="n">
         <v>0.1038146749961386</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E46" t="n">
+        <v>0.8961796972098971</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1728,10 +1638,8 @@
       <c r="D47" t="n">
         <v>0.3739693867498408</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0.6259758288379206</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1754,14 +1662,12 @@
       <c r="D48" t="n">
         <v>0.4405102152362647</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E48" t="n">
+        <v>0.4564227098516983</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
@@ -1780,14 +1686,12 @@
       <c r="D49" t="n">
         <v>0.7805216423830542</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E49" t="n">
+        <v>0.7805216423830542</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>s__QALS01 sp003150575</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
@@ -1806,10 +1710,8 @@
       <c r="D50" t="n">
         <v>0.007251119611437981</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp003150575</t>
-        </is>
+      <c r="E50" t="n">
+        <v>0.9927486252786885</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1859,12 +1761,12 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -1883,10 +1785,8 @@
       <c r="D2" t="n">
         <v>0.005378000763114498</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.9922195250351137</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1909,10 +1809,8 @@
       <c r="D3" t="n">
         <v>0.0007237036356275882</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.9968008176779883</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1935,10 +1833,8 @@
       <c r="D4" t="n">
         <v>0.1469152639422971</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.8472123767754044</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1961,10 +1857,8 @@
       <c r="D5" t="n">
         <v>0.0236506459815303</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0.8984443758623541</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1987,10 +1881,8 @@
       <c r="D6" t="n">
         <v>0.001990395513935009</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0.9979349245798902</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2013,10 +1905,8 @@
       <c r="D7" t="n">
         <v>0.001444796281961998</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0.9984292241847479</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2039,10 +1929,8 @@
       <c r="D8" t="n">
         <v>0.06936282088452742</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0.9294931354313345</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2065,10 +1953,8 @@
       <c r="D9" t="n">
         <v>0.002629009177211819</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0.9949324549600198</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2091,10 +1977,8 @@
       <c r="D10" t="n">
         <v>0.001434097097104221</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0.9837414094064328</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2117,10 +2001,8 @@
       <c r="D11" t="n">
         <v>0.0001978874750345692</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0.9990549626058094</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2143,10 +2025,8 @@
       <c r="D12" t="n">
         <v>0.004464766086165272</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0.990959280814132</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2169,10 +2049,8 @@
       <c r="D13" t="n">
         <v>0.08434979176508553</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0.9024295576364638</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2195,10 +2073,8 @@
       <c r="D14" t="n">
         <v>0.0004619945406359169</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.9016408685846451</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -2221,10 +2097,8 @@
       <c r="D15" t="n">
         <v>0.0002108243677639974</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.9899228796573418</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2247,10 +2121,8 @@
       <c r="D16" t="n">
         <v>0.008146884204952133</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0.9665029187558867</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2273,10 +2145,8 @@
       <c r="D17" t="n">
         <v>0.001543001067174148</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0.9931487029478727</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2299,10 +2169,8 @@
       <c r="D18" t="n">
         <v>0.003364283920195807</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0.9931132396769574</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2325,10 +2193,8 @@
       <c r="D19" t="n">
         <v>0.0005457890544490759</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0.996217217066512</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2351,10 +2217,8 @@
       <c r="D20" t="n">
         <v>0.03807161551772879</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.9448850792288533</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2377,10 +2241,8 @@
       <c r="D21" t="n">
         <v>0.006445725762288453</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.9904625895211734</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2403,10 +2265,8 @@
       <c r="D22" t="n">
         <v>1.961864007649085e-05</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0.9984559198200098</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2429,10 +2289,8 @@
       <c r="D23" t="n">
         <v>0.002691472712132408</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E23" t="n">
+        <v>0.9914519622301668</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2455,10 +2313,8 @@
       <c r="D24" t="n">
         <v>0.0005268570805305177</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E24" t="n">
+        <v>0.9994628570625161</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2481,10 +2337,8 @@
       <c r="D25" t="n">
         <v>2.303471711834474e-05</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E25" t="n">
+        <v>0.9967334904218627</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2507,10 +2361,8 @@
       <c r="D26" t="n">
         <v>0.001961114396722775</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0.9906624129198144</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2533,10 +2385,8 @@
       <c r="D27" t="n">
         <v>0.1207774950679881</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0.868443879525348</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2559,10 +2409,8 @@
       <c r="D28" t="n">
         <v>0.007185954163385399</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0.9794730610017326</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2585,10 +2433,8 @@
       <c r="D29" t="n">
         <v>0.00953052982275028</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0.9758273104222586</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2611,10 +2457,8 @@
       <c r="D30" t="n">
         <v>0.07991856417749447</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0.84691146085624</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2637,10 +2481,8 @@
       <c r="D31" t="n">
         <v>0.000135170217869226</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0.9952167972543317</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2663,10 +2505,8 @@
       <c r="D32" t="n">
         <v>0.005230444301994343</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0.9943312871764438</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2689,10 +2529,8 @@
       <c r="D33" t="n">
         <v>0.1170177774291463</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E33" t="n">
+        <v>0.8666907369872452</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2715,10 +2553,8 @@
       <c r="D34" t="n">
         <v>0.001988199866346626</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0.994276578786509</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2741,10 +2577,8 @@
       <c r="D35" t="n">
         <v>0.001582069012890715</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0.9943445246588374</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2767,10 +2601,8 @@
       <c r="D36" t="n">
         <v>0.006428318240693456</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0.9922761189845506</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2793,10 +2625,8 @@
       <c r="D37" t="n">
         <v>0.001707327511572818</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E37" t="n">
+        <v>0.9798882103322845</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2819,10 +2649,8 @@
       <c r="D38" t="n">
         <v>0.00138980498121248</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E38" t="n">
+        <v>0.9939239041835602</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2845,10 +2673,8 @@
       <c r="D39" t="n">
         <v>0.02275460544943753</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E39" t="n">
+        <v>0.9642857531949555</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2871,10 +2697,8 @@
       <c r="D40" t="n">
         <v>0.00533001164430847</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E40" t="n">
+        <v>0.9857131665375999</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2897,10 +2721,8 @@
       <c r="D41" t="n">
         <v>0.01344655589139839</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E41" t="n">
+        <v>0.9715831636725171</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2923,10 +2745,8 @@
       <c r="D42" t="n">
         <v>0.000966752215732631</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E42" t="n">
+        <v>0.983282827066943</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2949,10 +2769,8 @@
       <c r="D43" t="n">
         <v>0.03071616767958581</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E43" t="n">
+        <v>0.9618833084097824</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2975,10 +2793,8 @@
       <c r="D44" t="n">
         <v>0.004976043460382205</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E44" t="n">
+        <v>0.9927480719143391</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3001,10 +2817,8 @@
       <c r="D45" t="n">
         <v>0.0613244654165241</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E45" t="n">
+        <v>0.9260637129780264</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3027,10 +2841,8 @@
       <c r="D46" t="n">
         <v>0.01262967020883767</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E46" t="n">
+        <v>0.9748522860620898</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3053,10 +2865,8 @@
       <c r="D47" t="n">
         <v>0.07197323509645585</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0.8273326784213704</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3079,10 +2889,8 @@
       <c r="D48" t="n">
         <v>0.004645226916020688</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E48" t="n">
+        <v>0.9763600416092012</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3105,10 +2913,8 @@
       <c r="D49" t="n">
         <v>0.01065965127114373</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E49" t="n">
+        <v>0.9728993168666025</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3131,10 +2937,8 @@
       <c r="D50" t="n">
         <v>0.0475683479188546</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E50" t="n">
+        <v>0.9418262377130441</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3157,10 +2961,8 @@
       <c r="D51" t="n">
         <v>0.005067107765152535</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E51" t="n">
+        <v>0.9838609763525908</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3183,10 +2985,8 @@
       <c r="D52" t="n">
         <v>0.009748187896059147</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0.9790730257247586</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3209,10 +3009,8 @@
       <c r="D53" t="n">
         <v>0.05369783190676832</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E53" t="n">
+        <v>0.9363970317365681</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3235,10 +3033,8 @@
       <c r="D54" t="n">
         <v>0.1924185541358815</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0.7907429522859994</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3261,10 +3057,8 @@
       <c r="D55" t="n">
         <v>0.01440441397197379</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E55" t="n">
+        <v>0.9753756038954898</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3287,10 +3081,8 @@
       <c r="D56" t="n">
         <v>0.001434191781644351</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E56" t="n">
+        <v>0.9934132062473502</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3313,10 +3105,8 @@
       <c r="D57" t="n">
         <v>0.005875018660040667</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E57" t="n">
+        <v>0.9835405600693877</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3339,10 +3129,8 @@
       <c r="D58" t="n">
         <v>0.2204219057097543</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0.7474659233201139</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3365,10 +3153,8 @@
       <c r="D59" t="n">
         <v>0.01015692589545703</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0.9834624660164254</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3391,10 +3177,8 @@
       <c r="D60" t="n">
         <v>0.04630415743822697</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0.932422926512477</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3417,10 +3201,8 @@
       <c r="D61" t="n">
         <v>0.1297037651533633</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0.8677569498105527</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3443,10 +3225,8 @@
       <c r="D62" t="n">
         <v>7.889112187767958e-06</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E62" t="n">
+        <v>0.9976360569038439</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3469,10 +3249,8 @@
       <c r="D63" t="n">
         <v>0.02065585434164194</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E63" t="n">
+        <v>0.9584171781017489</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3495,10 +3273,8 @@
       <c r="D64" t="n">
         <v>0.04434643880009938</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0.9483349608290849</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3521,10 +3297,8 @@
       <c r="D65" t="n">
         <v>0.002105892494847343</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E65" t="n">
+        <v>0.9956570324739042</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3547,10 +3321,8 @@
       <c r="D66" t="n">
         <v>0.004560331321311373</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E66" t="n">
+        <v>0.946137679053485</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3573,10 +3345,8 @@
       <c r="D67" t="n">
         <v>6.737490510898344e-06</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0.9958168929665793</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3599,10 +3369,8 @@
       <c r="D68" t="n">
         <v>0.001769322616513353</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.9941431869128186</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3625,10 +3393,8 @@
       <c r="D69" t="n">
         <v>0.0182924686790487</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0.952815607029409</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3651,10 +3417,8 @@
       <c r="D70" t="n">
         <v>0.0008112096285472569</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0.9932489893715299</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3677,10 +3441,8 @@
       <c r="D71" t="n">
         <v>3.234461695349284e-10</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0.982021791858199</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3703,10 +3465,8 @@
       <c r="D72" t="n">
         <v>0.3241512246849094</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E72" t="n">
+        <v>0.6539988184386332</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3729,10 +3489,8 @@
       <c r="D73" t="n">
         <v>7.751762066356595e-05</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E73" t="n">
+        <v>0.9977099352618409</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3755,10 +3513,8 @@
       <c r="D74" t="n">
         <v>0.01109491965379936</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E74" t="n">
+        <v>0.9859116396607359</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3781,10 +3537,8 @@
       <c r="D75" t="n">
         <v>0.0004032954778693868</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E75" t="n">
+        <v>0.9926349368896502</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3807,10 +3561,8 @@
       <c r="D76" t="n">
         <v>0.01365852249654833</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0.976813041266878</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3833,10 +3585,8 @@
       <c r="D77" t="n">
         <v>0.0001958299214735952</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0.9981159015629223</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3859,10 +3609,8 @@
       <c r="D78" t="n">
         <v>0.002344326821819068</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E78" t="n">
+        <v>0.9926319433028109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3885,10 +3633,8 @@
       <c r="D79" t="n">
         <v>0.001164652192592527</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0.9852109480184414</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3911,10 +3657,8 @@
       <c r="D80" t="n">
         <v>0.001142553490734608</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0.9756992002546502</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3937,10 +3681,8 @@
       <c r="D81" t="n">
         <v>0.02265752127607491</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0.9313379808048631</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3963,10 +3705,8 @@
       <c r="D82" t="n">
         <v>0.261968382245459</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E82" t="n">
+        <v>0.6829356933861822</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3989,10 +3729,8 @@
       <c r="D83" t="n">
         <v>0.003028717879877383</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E83" t="n">
+        <v>0.9931453218136727</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4015,10 +3753,8 @@
       <c r="D84" t="n">
         <v>2.523074037669429e-05</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E84" t="n">
+        <v>0.9985135158693651</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4041,10 +3777,8 @@
       <c r="D85" t="n">
         <v>0.009485502870591831</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E85" t="n">
+        <v>0.9635348714006937</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4067,10 +3801,8 @@
       <c r="D86" t="n">
         <v>0.01190527178787014</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E86" t="n">
+        <v>0.9803894710898454</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4093,10 +3825,8 @@
       <c r="D87" t="n">
         <v>0.06500354631313687</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E87" t="n">
+        <v>0.9097370190977002</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4119,10 +3849,8 @@
       <c r="D88" t="n">
         <v>0.0006966980222644796</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E88" t="n">
+        <v>0.9950223265540761</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4145,10 +3873,8 @@
       <c r="D89" t="n">
         <v>0.000123096283519348</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E89" t="n">
+        <v>0.9990364143464835</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4171,10 +3897,8 @@
       <c r="D90" t="n">
         <v>0.001298939304454504</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E90" t="n">
+        <v>0.9889729564373853</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4197,10 +3921,8 @@
       <c r="D91" t="n">
         <v>0.002940131283628082</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E91" t="n">
+        <v>0.9925060670558818</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4223,10 +3945,8 @@
       <c r="D92" t="n">
         <v>0.05207908985679184</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E92" t="n">
+        <v>0.9218061311696467</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4249,10 +3969,8 @@
       <c r="D93" t="n">
         <v>0.04428623832374255</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E93" t="n">
+        <v>0.9522145706215023</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4275,10 +3993,8 @@
       <c r="D94" t="n">
         <v>5.06916686922684e-06</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E94" t="n">
+        <v>0.7955343100827839</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4301,10 +4017,8 @@
       <c r="D95" t="n">
         <v>0.001537659571391638</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E95" t="n">
+        <v>0.9955146746267972</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4327,10 +4041,8 @@
       <c r="D96" t="n">
         <v>1.558244327333429e-05</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E96" t="n">
+        <v>0.9975543013541771</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4353,10 +4065,8 @@
       <c r="D97" t="n">
         <v>0.001188437435018976</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E97" t="n">
+        <v>0.9897826041942108</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4379,10 +4089,8 @@
       <c r="D98" t="n">
         <v>0.01888942706622004</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E98" t="n">
+        <v>0.9719219323819515</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4405,10 +4113,8 @@
       <c r="D99" t="n">
         <v>2.939368442845253e-06</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E99" t="n">
+        <v>0.9984994949138802</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4431,10 +4137,8 @@
       <c r="D100" t="n">
         <v>4.892935946936515e-09</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E100" t="n">
+        <v>0.9995186734904691</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4457,10 +4161,8 @@
       <c r="D101" t="n">
         <v>0.06178024690725985</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E101" t="n">
+        <v>0.9054825088708442</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4483,10 +4185,8 @@
       <c r="D102" t="n">
         <v>0.0002274069196120072</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E102" t="n">
+        <v>0.9984841107791989</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4509,10 +4209,8 @@
       <c r="D103" t="n">
         <v>0.004507001240749296</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E103" t="n">
+        <v>0.9361631742390276</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4535,10 +4233,8 @@
       <c r="D104" t="n">
         <v>1.551241314683134e-07</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E104" t="n">
+        <v>0.9966733788229662</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4561,14 +4257,12 @@
       <c r="D105" t="n">
         <v>0.4689952349464204</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E105" t="n">
+        <v>0.4689952349464204</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900552625</t>
+          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
@@ -4587,10 +4281,8 @@
       <c r="D106" t="n">
         <v>8.238352755839599e-05</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E106" t="n">
+        <v>0.9965495834799281</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4613,10 +4305,8 @@
       <c r="D107" t="n">
         <v>5.955657784307555e-06</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E107" t="n">
+        <v>0.9972052042479278</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4639,10 +4329,8 @@
       <c r="D108" t="n">
         <v>0.03034229729785895</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E108" t="n">
+        <v>0.9573836398491271</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4665,10 +4353,8 @@
       <c r="D109" t="n">
         <v>7.085889486318602e-08</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E109" t="n">
+        <v>0.9978877747552392</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4691,10 +4377,8 @@
       <c r="D110" t="n">
         <v>2.452120079037783e-07</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E110" t="n">
+        <v>0.9974153736564326</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4717,10 +4401,8 @@
       <c r="D111" t="n">
         <v>0.002400279868931987</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E111" t="n">
+        <v>0.9888449351971293</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4743,10 +4425,8 @@
       <c r="D112" t="n">
         <v>0.002163846838521537</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E112" t="n">
+        <v>0.9924514018945955</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4769,10 +4449,8 @@
       <c r="D113" t="n">
         <v>0.003381171700727</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E113" t="n">
+        <v>0.9922356017004584</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4795,10 +4473,8 @@
       <c r="D114" t="n">
         <v>0.0006608194453731739</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E114" t="n">
+        <v>0.9936099701983999</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4821,10 +4497,8 @@
       <c r="D115" t="n">
         <v>2.682498976570782e-07</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E115" t="n">
+        <v>0.9979053669059434</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4847,10 +4521,8 @@
       <c r="D116" t="n">
         <v>0.009380798592104497</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E116" t="n">
+        <v>0.9801221727902628</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4873,10 +4545,8 @@
       <c r="D117" t="n">
         <v>1.251359260131496e-08</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E117" t="n">
+        <v>0.997671598693895</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4899,10 +4569,8 @@
       <c r="D118" t="n">
         <v>0.0003359054092320795</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E118" t="n">
+        <v>0.9951449336103326</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4925,10 +4593,8 @@
       <c r="D119" t="n">
         <v>0.005378000763114498</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E119" t="n">
+        <v>0.9922195250351137</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4951,10 +4617,8 @@
       <c r="D120" t="n">
         <v>0.0007237036356275882</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E120" t="n">
+        <v>0.9968008176779883</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4977,10 +4641,8 @@
       <c r="D121" t="n">
         <v>0.1469152639422971</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E121" t="n">
+        <v>0.8472123767754044</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5003,10 +4665,8 @@
       <c r="D122" t="n">
         <v>0.0236506459815303</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E122" t="n">
+        <v>0.8984443758623541</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5029,10 +4689,8 @@
       <c r="D123" t="n">
         <v>0.001990395513935009</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E123" t="n">
+        <v>0.9979349245798902</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5055,10 +4713,8 @@
       <c r="D124" t="n">
         <v>0.001444796281961998</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E124" t="n">
+        <v>0.9984292241847479</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5081,10 +4737,8 @@
       <c r="D125" t="n">
         <v>0.06936282088452742</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E125" t="n">
+        <v>0.9294931354313345</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5107,10 +4761,8 @@
       <c r="D126" t="n">
         <v>0.002629009177211819</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E126" t="n">
+        <v>0.9949324549600198</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5133,10 +4785,8 @@
       <c r="D127" t="n">
         <v>0.001434097097104221</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E127" t="n">
+        <v>0.9837414094064328</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5159,10 +4809,8 @@
       <c r="D128" t="n">
         <v>0.0001978874750345692</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E128" t="n">
+        <v>0.9990549626058094</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5185,10 +4833,8 @@
       <c r="D129" t="n">
         <v>0.004464766086165272</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E129" t="n">
+        <v>0.990959280814132</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5211,10 +4857,8 @@
       <c r="D130" t="n">
         <v>0.08434979176508553</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E130" t="n">
+        <v>0.9024295576364638</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5237,10 +4881,8 @@
       <c r="D131" t="n">
         <v>0.0004619945406359169</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E131" t="n">
+        <v>0.9016408685846451</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5263,10 +4905,8 @@
       <c r="D132" t="n">
         <v>0.0002108243677639974</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E132" t="n">
+        <v>0.9899228796573418</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5289,10 +4929,8 @@
       <c r="D133" t="n">
         <v>0.008146884204952133</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E133" t="n">
+        <v>0.9665029187558867</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5315,10 +4953,8 @@
       <c r="D134" t="n">
         <v>0.001543001067174148</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E134" t="n">
+        <v>0.9931487029478727</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5341,10 +4977,8 @@
       <c r="D135" t="n">
         <v>0.003364283920195807</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E135" t="n">
+        <v>0.9931132396769574</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5367,10 +5001,8 @@
       <c r="D136" t="n">
         <v>0.0005457890544490759</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E136" t="n">
+        <v>0.996217217066512</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5393,10 +5025,8 @@
       <c r="D137" t="n">
         <v>0.03807161551772879</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E137" t="n">
+        <v>0.9448850792288533</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -5419,10 +5049,8 @@
       <c r="D138" t="n">
         <v>0.006445725762288453</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E138" t="n">
+        <v>0.9904625895211734</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5445,10 +5073,8 @@
       <c r="D139" t="n">
         <v>1.961864007649085e-05</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E139" t="n">
+        <v>0.9984559198200098</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5471,10 +5097,8 @@
       <c r="D140" t="n">
         <v>0.002691472712132408</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E140" t="n">
+        <v>0.9914519622301668</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5497,10 +5121,8 @@
       <c r="D141" t="n">
         <v>0.0005268570805305177</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E141" t="n">
+        <v>0.9994628570625161</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5523,10 +5145,8 @@
       <c r="D142" t="n">
         <v>2.303471711834474e-05</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E142" t="n">
+        <v>0.9967334904218627</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5549,10 +5169,8 @@
       <c r="D143" t="n">
         <v>0.001961114396722775</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E143" t="n">
+        <v>0.9906624129198144</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5602,12 +5220,12 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -5626,10 +5244,8 @@
       <c r="D2" t="n">
         <v>0.991718103491157</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.991718103491157</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5652,10 +5268,8 @@
       <c r="D3" t="n">
         <v>0.9984483685974699</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.9984483685974699</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5678,10 +5292,8 @@
       <c r="D4" t="n">
         <v>0.9992151923262056</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.9992151923262056</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5704,10 +5316,8 @@
       <c r="D5" t="n">
         <v>0.9928813229036968</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0.9928813229036968</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5730,10 +5340,8 @@
       <c r="D6" t="n">
         <v>0.9945596521009096</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0.9945596521009096</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5756,10 +5364,8 @@
       <c r="D7" t="n">
         <v>0.9975107749348648</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0.9975107749348648</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5782,10 +5388,8 @@
       <c r="D8" t="n">
         <v>0.996208889065476</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0.996208889065476</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5808,10 +5412,8 @@
       <c r="D9" t="n">
         <v>0.9596538686874074</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0.9596538686874074</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -5834,10 +5436,8 @@
       <c r="D10" t="n">
         <v>0.9921044306612827</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0.9921044306612827</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5860,10 +5460,8 @@
       <c r="D11" t="n">
         <v>0.9886784953347028</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0.9886784953347028</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5886,10 +5484,8 @@
       <c r="D12" t="n">
         <v>0.91582658662276</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0.91582658662276</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -5912,10 +5508,8 @@
       <c r="D13" t="n">
         <v>0.711758048745656</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0.711758048745656</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -5938,10 +5532,8 @@
       <c r="D14" t="n">
         <v>0.8797441265571627</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.8797441265571627</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -5964,10 +5556,8 @@
       <c r="D15" t="n">
         <v>0.8781474415736251</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.8781474415736251</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -5990,10 +5580,8 @@
       <c r="D16" t="n">
         <v>0.9030446382711396</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0.9030446382711396</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -6016,10 +5604,8 @@
       <c r="D17" t="n">
         <v>0.8235864303387246</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0.8235864303387246</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -6042,10 +5628,8 @@
       <c r="D18" t="n">
         <v>0.8677053772101301</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0.8677053772101301</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -6068,10 +5652,8 @@
       <c r="D19" t="n">
         <v>0.9899662989673228</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0.9899662989673228</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -6094,10 +5676,8 @@
       <c r="D20" t="n">
         <v>0.9581740508375305</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.9581740508375305</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -6120,10 +5700,8 @@
       <c r="D21" t="n">
         <v>0.9666507978850747</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.9666507978850747</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -6146,10 +5724,8 @@
       <c r="D22" t="n">
         <v>0.8735019568631996</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0.8735019568631996</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -6172,10 +5748,8 @@
       <c r="D23" t="n">
         <v>0.925396211508508</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E23" t="n">
+        <v>0.925396211508508</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -6198,10 +5772,8 @@
       <c r="D24" t="n">
         <v>0.994467128373778</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E24" t="n">
+        <v>0.994467128373778</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -6224,10 +5796,8 @@
       <c r="D25" t="n">
         <v>0.9029227191399419</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E25" t="n">
+        <v>0.9029227191399419</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -6250,10 +5820,8 @@
       <c r="D26" t="n">
         <v>0.9451137298845128</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0.9451137298845128</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -6276,10 +5844,8 @@
       <c r="D27" t="n">
         <v>0.9748040577972249</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0.9748040577972249</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -6302,10 +5868,8 @@
       <c r="D28" t="n">
         <v>0.9241573372188547</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0.9241573372188547</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -6328,10 +5892,8 @@
       <c r="D29" t="n">
         <v>0.9137757831521871</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0.9137757831521871</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -6354,10 +5916,8 @@
       <c r="D30" t="n">
         <v>0.8710109854188417</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0.8710109854188417</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6380,10 +5940,8 @@
       <c r="D31" t="n">
         <v>0.7265764329685817</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0.7265764329685817</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -6406,10 +5964,8 @@
       <c r="D32" t="n">
         <v>0.4550235092725112</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0.4550235092725112</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -6432,10 +5988,8 @@
       <c r="D33" t="n">
         <v>0.9128880339716301</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E33" t="n">
+        <v>0.9128880339716301</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -6458,10 +6012,8 @@
       <c r="D34" t="n">
         <v>0.9909767974610285</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0.9909767974610285</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -6484,10 +6036,8 @@
       <c r="D35" t="n">
         <v>0.993154666161628</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0.993154666161628</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -6510,10 +6060,8 @@
       <c r="D36" t="n">
         <v>0.9947655404085507</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0.9947655404085507</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -6536,10 +6084,8 @@
       <c r="D37" t="n">
         <v>0.9772846893506179</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E37" t="n">
+        <v>0.9772846893506179</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -6562,10 +6108,8 @@
       <c r="D38" t="n">
         <v>0.9972799994609148</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E38" t="n">
+        <v>0.9972799994609148</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -6588,10 +6132,8 @@
       <c r="D39" t="n">
         <v>0.9913431402868288</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E39" t="n">
+        <v>0.9913431402868288</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -6614,10 +6156,8 @@
       <c r="D40" t="n">
         <v>0.9624075163759647</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E40" t="n">
+        <v>0.9624075163759647</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -6640,10 +6180,8 @@
       <c r="D41" t="n">
         <v>0.9768721619386661</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E41" t="n">
+        <v>0.9768721619386661</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -6666,10 +6204,8 @@
       <c r="D42" t="n">
         <v>0.9705333341188856</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E42" t="n">
+        <v>0.9705333341188856</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -6692,10 +6228,8 @@
       <c r="D43" t="n">
         <v>0.8908817775019472</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E43" t="n">
+        <v>0.8908817775019472</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -6718,10 +6252,8 @@
       <c r="D44" t="n">
         <v>0.9735699552333211</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E44" t="n">
+        <v>0.9735699552333211</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -6744,10 +6276,8 @@
       <c r="D45" t="n">
         <v>0.9855627594867296</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E45" t="n">
+        <v>0.9855627594867296</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -6770,14 +6300,12 @@
       <c r="D46" t="n">
         <v>0.2904538695756903</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E46" t="n">
+        <v>0.6730457162973138</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
@@ -6796,10 +6324,8 @@
       <c r="D47" t="n">
         <v>0.9997080605059752</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0.9997080605059752</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -6822,10 +6348,8 @@
       <c r="D48" t="n">
         <v>0.8581197866774605</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E48" t="n">
+        <v>0.8581197866774605</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -6848,14 +6372,12 @@
       <c r="D49" t="n">
         <v>0.2392881977792952</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900552625</t>
-        </is>
+      <c r="E49" t="n">
+        <v>0.6363591625513368</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>s__QALS01 sp900555925</t>
+          <t>s__QALS01 sp900552625</t>
         </is>
       </c>
     </row>
@@ -6874,10 +6396,8 @@
       <c r="D50" t="n">
         <v>0.9747629799794286</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E50" t="n">
+        <v>0.9747629799794286</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -6900,10 +6420,8 @@
       <c r="D51" t="n">
         <v>0.9905203296901717</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E51" t="n">
+        <v>0.9905203296901717</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -6926,10 +6444,8 @@
       <c r="D52" t="n">
         <v>0.9981578162992778</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0.9981578162992778</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -6952,10 +6468,8 @@
       <c r="D53" t="n">
         <v>0.9838058324809417</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E53" t="n">
+        <v>0.9838058324809417</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -6978,10 +6492,8 @@
       <c r="D54" t="n">
         <v>0.9801060048748277</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0.9801060048748277</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -7004,14 +6516,12 @@
       <c r="D55" t="n">
         <v>0.06050993868342562</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="n">
+        <v>0.9392028295168938</v>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>s__QALS01 sp003150575</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
         </is>
       </c>
     </row>
@@ -7030,10 +6540,8 @@
       <c r="D56" t="n">
         <v>0.9962086153176477</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E56" t="n">
+        <v>0.9962086153176477</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -7056,10 +6564,8 @@
       <c r="D57" t="n">
         <v>0.997952623702736</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E57" t="n">
+        <v>0.997952623702736</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -7082,10 +6588,8 @@
       <c r="D58" t="n">
         <v>0.9944386178486683</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0.9944386178486683</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -7108,10 +6612,8 @@
       <c r="D59" t="n">
         <v>0.996055247598741</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0.996055247598741</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -7134,10 +6636,8 @@
       <c r="D60" t="n">
         <v>0.9981834107041511</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0.9981834107041511</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -7160,10 +6660,8 @@
       <c r="D61" t="n">
         <v>0.6312530878430977</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0.6312530878430977</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -7186,10 +6684,8 @@
       <c r="D62" t="n">
         <v>0.9960952281035749</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E62" t="n">
+        <v>0.9960952281035749</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -7212,10 +6708,8 @@
       <c r="D63" t="n">
         <v>0.9534479111943134</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E63" t="n">
+        <v>0.9534479111943134</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -7238,10 +6732,8 @@
       <c r="D64" t="n">
         <v>0.8765324498352446</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0.8765324498352446</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -7264,10 +6756,8 @@
       <c r="D65" t="n">
         <v>0.6145898814908394</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E65" t="n">
+        <v>0.6145898814908394</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -7290,10 +6780,8 @@
       <c r="D66" t="n">
         <v>0.9715157184754666</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E66" t="n">
+        <v>0.9715157184754666</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7316,10 +6804,8 @@
       <c r="D67" t="n">
         <v>0.991718103491157</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0.991718103491157</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -7342,10 +6828,8 @@
       <c r="D68" t="n">
         <v>0.9984483685974699</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.9984483685974699</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -7368,10 +6852,8 @@
       <c r="D69" t="n">
         <v>0.9992151923262056</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0.9992151923262056</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -7394,10 +6876,8 @@
       <c r="D70" t="n">
         <v>0.9928813229036968</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0.9928813229036968</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -7420,10 +6900,8 @@
       <c r="D71" t="n">
         <v>0.9945596521009096</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0.9945596521009096</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -7446,10 +6924,8 @@
       <c r="D72" t="n">
         <v>0.9975107749348648</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E72" t="n">
+        <v>0.9975107749348648</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -7472,10 +6948,8 @@
       <c r="D73" t="n">
         <v>0.996208889065476</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E73" t="n">
+        <v>0.996208889065476</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -7498,10 +6972,8 @@
       <c r="D74" t="n">
         <v>0.9596538686874074</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E74" t="n">
+        <v>0.9596538686874074</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -7524,10 +6996,8 @@
       <c r="D75" t="n">
         <v>0.9921044306612827</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E75" t="n">
+        <v>0.9921044306612827</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -7550,10 +7020,8 @@
       <c r="D76" t="n">
         <v>0.9886784953347028</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0.9886784953347028</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -7576,10 +7044,8 @@
       <c r="D77" t="n">
         <v>0.91582658662276</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0.91582658662276</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -7602,10 +7068,8 @@
       <c r="D78" t="n">
         <v>0.711758048745656</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E78" t="n">
+        <v>0.711758048745656</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -7628,10 +7092,8 @@
       <c r="D79" t="n">
         <v>0.8797441265571627</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0.8797441265571627</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -7654,10 +7116,8 @@
       <c r="D80" t="n">
         <v>0.8781474415736251</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0.8781474415736251</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -7680,10 +7140,8 @@
       <c r="D81" t="n">
         <v>0.9030446382711396</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0.9030446382711396</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -7706,10 +7164,8 @@
       <c r="D82" t="n">
         <v>0.8235864303387246</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E82" t="n">
+        <v>0.8235864303387246</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -7732,10 +7188,8 @@
       <c r="D83" t="n">
         <v>0.8677053772101301</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>s__QALS01 sp900555925</t>
-        </is>
+      <c r="E83" t="n">
+        <v>0.8677053772101301</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
